--- a/Assets/R/TableProj/Excel/_Prop.xlsx
+++ b/Assets/R/TableProj/Excel/_Prop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempProj\Assets\R\TableProj\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\TempProj\Assets\R\TableProj\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20044893-DA44-4928-B313-EBC14EED2499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264416B-527C-489A-BF34-6C2623FA2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2190" windowWidth="22590" windowHeight="12075" tabRatio="765" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="1650" windowWidth="27600" windowHeight="11775" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PropGroup" sheetId="2" r:id="rId1"/>
@@ -178,18 +178,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>资源型-BackpackResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备型-BackpackEquipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动型-BackpackActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>s</t>
     </r>
@@ -458,6 +446,18 @@
   <si>
     <t>2021-05-31T00:00:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源型-PropResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备型-PropEquipment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动型-PropActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81267DF9-4D1A-4B42-B91C-D2AC6E2602EA}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -926,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -934,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -948,13 +948,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1071,19 +1071,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1155,7 +1155,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1178,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1186,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -1201,12 +1201,12 @@
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1224,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1247,21 +1247,21 @@
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
@@ -1270,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1479,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43A6CA-627F-4FAA-BB85-F82B1EBDCA47}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1590,18 +1590,18 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
